--- a/medicine/Enfance/Éric_Battut/Éric_Battut.xlsx
+++ b/medicine/Enfance/Éric_Battut/Éric_Battut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Battut</t>
+          <t>Éric_Battut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric Battut, né le 30 août 1968 à Chamalières (Puy-de-Dôme), est un auteur et illustrateur français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Battut</t>
+          <t>Éric_Battut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric Battut a étudié l'économie et le droit, puis a étudié à l'École Émile-Cohl[1],[2] à Lyon. Il commence ses premières publications au milieu des années 1990.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Battut a étudié l'économie et le droit, puis a étudié à l'École Émile-Cohl, à Lyon. Il commence ses premières publications au milieu des années 1990.
 Il est l'auteur de plus d'une centaine d'albums ou ouvrages, pour la plupart des ouvrages jeunesse. Il est essentiellement scénariste et illustrateur de ses ouvrages, mais il illustre également des textes d'autres auteurs jeunesse. Parmi eux, on peut citer François David, Carl Norac ou Michel Piquemal.
-Ses illustrations sont le plus souvent des peintures, à la gouache ou à l'acrylique[2]. Pour le journal Télérama en 2014, il est un « gouacheur miniaturiste hors pair, capable de cerner l'intime infime, d'un gros trait de pinceau »[3]. 
-Il est membre de la Charte des auteurs et illustrateurs jeunesse[4].
-Éric Battut a obtenu de nombreux prix, dont le prestigieux Grand Prix de la Biennale d'illustration de Bratislava (BIB)[2],[5] en 2001. Il est le troisième et dernier français à ce jour à avoir obtenu ce Grand Prix, depuis la création de la Biennale en 1967, et depuis sa dernière édition en 2023[6].
+Ses illustrations sont le plus souvent des peintures, à la gouache ou à l'acrylique. Pour le journal Télérama en 2014, il est un « gouacheur miniaturiste hors pair, capable de cerner l'intime infime, d'un gros trait de pinceau ». 
+Il est membre de la Charte des auteurs et illustrateurs jeunesse.
+Éric Battut a obtenu de nombreux prix, dont le prestigieux Grand Prix de la Biennale d'illustration de Bratislava (BIB), en 2001. Il est le troisième et dernier français à ce jour à avoir obtenu ce Grand Prix, depuis la création de la Biennale en 1967, et depuis sa dernière édition en 2023.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Battut</t>
+          <t>Éric_Battut</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,18 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1997 : Prix Figures Futures de Montreuil[1],[2]
-2000 : Prix Octogones du CIELJ[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1997 : Prix Figures Futures de Montreuil,
+2000 : Prix Octogones du CIELJ
 2000 : Prix Goncourt jeunesse pour Rouge Matou
-2001 :  Grand Prix de la Biennale d'illustration de Bratislava (BIB)[2],[5] pour Au fil des mois et pour La Barbe bleue (texte de Charles Perrault)
-2001 : Prix Mille Pages[2]
-2001 : Grand Prix SGDL du roman jeunesse[7] pour Rouge Matou
-2005 : Prix Pitchou[8] (Fête du livre de jeunesse de Saint-Paul-Trois-Châteaux) pour Le Secret
-2010 :  Premio nazionale Nati per Leggere[9] du Salon international du livre (Turin) pour (it) Lindo Porcello</t>
+2001 :  Grand Prix de la Biennale d'illustration de Bratislava (BIB), pour Au fil des mois et pour La Barbe bleue (texte de Charles Perrault)
+2001 : Prix Mille Pages
+2001 : Grand Prix SGDL du roman jeunesse pour Rouge Matou
+2005 : Prix Pitchou (Fête du livre de jeunesse de Saint-Paul-Trois-Châteaux) pour Le Secret
+2010 :  Premio nazionale Nati per Leggere du Salon international du livre (Turin) pour (it) Lindo Porcello</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ric_Battut</t>
+          <t>Éric_Battut</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,22 +601,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Principaux ouvrages
-Au fil des mois, Didier Jeunesse, 1998
+          <t>Principaux ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Au fil des mois, Didier Jeunesse, 1998
 Rouge Matou, Milan, 2000  Prix Goncourt jeunesse 2000 - Grand Prix SGDL du roman jeunesse 2001
 La Barbe bleue (texte de Charles Perrault), Bilboquet, 2000
 Sables émouvants, texte de Thomas Scotto, Milan, 2001
 Le Secret, Didier Jeunesse, 2004
 Petit bonheur,  texte de Carl Norac, Bilboquet, 2005
-Entre chat et chien[3], éd. Autrement, 2006 ; et rééd.
-Éric et le pipeau magique[10], Bilboquet, 2007
+Entre chat et chien, éd. Autrement, 2006 ; et rééd.
+Éric et le pipeau magique, Bilboquet, 2007
 Le Petit Poisson rouge, L'élan vert, 2011
  La baleine et le petit poisson, Bayard jeunesse, 2011
 Oh ! La belle lune !, Didier jeunesse, 2011
 Libre comme l'air, texte de Carl Norac, ill. de Éric Battut, Didier jeunesse, 2011
 La Noisette, Didier Jeunesse, 2011
 Petit monsieur, texte de Michel Piquemal, éd. L'édune, 2011
-Broum : l'automobile[11] , Autrement, 2012
+Broum : l'automobile , Autrement, 2012
 Une cité, Éd. l'Édune, 2012
 La trilogie Petit bonhomme , éd. La Poule qui pond, 2015
 Le Roi Gros Vilain, Didier Jeunesse, 2017
@@ -621,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89ric_Battut</t>
+          <t>Éric_Battut</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,11 +660,13 @@
           <t>Quelques expositions récentes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>« Eux six », autour de la rencontre entre Éric Battut, Cécile Gambini, Fabienne Cinquin, Delphine Perret, Julie Wendling et Laura Guéry, ces  deux dernières, fondatrices du collectif « les Mamouchkas », Musée de l'illustration jeunesse, Moulins, février 2016 à juin 2016.
 « Exposition Éric Battut », Endroit-Envers bouquiniste, Clermont-Ferrand, 2017
-« Quel motif ? »[12], Éric Battut, Galerie Louis Gendre, Chamalières, 2018</t>
+« Quel motif ? », Éric Battut, Galerie Louis Gendre, Chamalières, 2018</t>
         </is>
       </c>
     </row>
